--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2469.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2469.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.132138302957967</v>
+        <v>1.532399296760559</v>
       </c>
       <c r="B1">
-        <v>2.605217353682431</v>
+        <v>2.161391258239746</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.632901430130005</v>
       </c>
       <c r="D1">
-        <v>3.45699125378667</v>
+        <v>4.127182483673096</v>
       </c>
       <c r="E1">
-        <v>0.9332687947999281</v>
+        <v>0.6179674863815308</v>
       </c>
     </row>
   </sheetData>
